--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84991EF5-CFE5-4325-AD56-826D4F37FC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24F1304-B7F7-4494-9376-53C05A566EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name_ar</t>
   </si>
@@ -70,6 +70,18 @@
     <t>category_id</t>
   </si>
   <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>snapchat</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
     <t>اسم المتجر</t>
   </si>
   <si>
@@ -85,13 +97,25 @@
     <t>Jooy</t>
   </si>
   <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
     <t>percentage</t>
   </si>
   <si>
-    <t>["10"]</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>["11","12"]</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
   </si>
 </sst>
 </file>
@@ -111,16 +135,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,16 +163,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,14 +183,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,9 +209,9 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FF89CA78"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFAAAAAA"/>
       <rgbColor rgb="FF444444"/>
-      <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
@@ -439,17 +469,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -477,10 +507,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -734,12 +764,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1032,7 +1062,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1060,10 +1090,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1321,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV2"/>
+  <dimension ref="A1:IS2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="A3:N10"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1333,10 +1363,10 @@
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
     <col min="8" max="13" width="8.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="253" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95" customHeight="1">
+    <row r="1" spans="1:18" ht="15.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,49 +1409,67 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5">
         <v>1234567</v>
       </c>
       <c r="G2" s="5">
-        <v>12212313</v>
+        <v>1234567</v>
       </c>
       <c r="H2" s="5">
-        <v>1313131</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1313</v>
+        <v>1234567</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7">
-        <v>10</v>
+        <v>13131131</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24F1304-B7F7-4494-9376-53C05A566EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D15128F-D61A-4591-85F2-C936380BA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name_ar</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>instagram</t>
+  </si>
+  <si>
+    <t>menu_link</t>
   </si>
   <si>
     <t>اسم المتجر</t>
@@ -1354,7 +1357,7 @@
   <dimension ref="A1:IS2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1366,7 +1369,7 @@
     <col min="15" max="253" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1">
+    <row r="1" spans="1:19" ht="15.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1421,22 +1424,25 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5">
         <v>1234567</v>
@@ -1448,28 +1454,28 @@
         <v>1234567</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7">
         <v>13131131</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D15128F-D61A-4591-85F2-C936380BA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EB7CDF-0F35-4EB8-A612-83377B673873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>name_ar</t>
   </si>
@@ -52,9 +52,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>Jooy</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
   </si>
   <si>
     <t>active</t>
@@ -1354,22 +1348,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IS2"/>
+  <dimension ref="A1:IR2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="8.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="13" width="8.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="253" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="12" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="252" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.95" customHeight="1">
+    <row r="1" spans="1:18" ht="15.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1406,10 +1400,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1424,25 +1418,22 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="5">
         <v>1234567</v>
@@ -1453,29 +1444,26 @@
       <c r="H2" s="5">
         <v>1234567</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7">
+        <v>13131131</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7">
-        <v>13131131</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70EB7CDF-0F35-4EB8-A612-83377B673873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC7AE74-989D-45A6-82A7-BDD8714F29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name_ar</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>menu_link</t>
+  </si>
+  <si>
+    <t>is_pincode</t>
+  </si>
+  <si>
+    <t>qr_code</t>
   </si>
   <si>
     <t>اسم المتجر</t>
@@ -119,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -134,6 +140,12 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -188,6 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1364,7 @@
   <dimension ref="A1:IR2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1363,7 +1376,7 @@
     <col min="14" max="252" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1">
+    <row r="1" spans="1:20" ht="15.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,22 +1431,28 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5">
         <v>1234567</v>
@@ -1445,25 +1464,25 @@
         <v>1234567</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="7">
         <v>13131131</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC7AE74-989D-45A6-82A7-BDD8714F29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{FAC7AE74-989D-45A6-82A7-BDD8714F29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8048E4E3-B386-4EA3-BCD4-7392DF5F9299}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>vat</t>
   </si>
   <si>
-    <t>category_id</t>
+    <t>category</t>
   </si>
   <si>
     <t>facebook</t>
@@ -112,7 +112,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>["11","12"]</t>
+    <t>["مطاعم","مقاهي"]</t>
   </si>
   <si>
     <t>facebook.com</t>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:IR2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{FAC7AE74-989D-45A6-82A7-BDD8714F29F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8048E4E3-B386-4EA3-BCD4-7392DF5F9299}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C5AD68C-53E9-4F7B-96C9-8446F923BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name_ar</t>
   </si>
@@ -55,15 +55,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>vat_no</t>
-  </si>
-  <si>
-    <t>vat_type</t>
-  </si>
-  <si>
-    <t>vat</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -82,12 +73,6 @@
     <t>menu_link</t>
   </si>
   <si>
-    <t>is_pincode</t>
-  </si>
-  <si>
-    <t>qr_code</t>
-  </si>
-  <si>
     <t>اسم المتجر</t>
   </si>
   <si>
@@ -104,12 +89,6 @@
   </si>
   <si>
     <t>active</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>["مطاعم","مقاهي"]</t>
@@ -125,16 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,7 +119,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,18 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,59 +1332,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IR2"/>
+  <dimension ref="A1:IM2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="8.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="12" width="8.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="252" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="247" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="15.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1422,67 +1391,43 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="7">
-        <v>13131131</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/brands_new_new.xlsx
+++ b/public/brands_new_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C5AD68C-53E9-4F7B-96C9-8446F923BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5973B655-C811-4682-B84B-F08BEFADF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,14 +111,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,12 +165,12 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,7 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IM2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1346,34 +1348,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1393,34 +1395,34 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1234567</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1234567</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>1234567</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
